--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607270.3388949985</v>
+        <v>538836.425446809</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554241</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8372090.023649041</v>
+        <v>8372090.02364904</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.6963243757077</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -761,7 +761,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>235.9137878510519</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72.47049842454874</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>122.5899586056058</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>222.3396163656983</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>88.9188851244174</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3567277916633</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>341.8784272709739</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.27559683049722</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>104.5113366705984</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1666,16 +1666,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>298.5943754452419</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>161.2620823710465</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755684</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>347.8702891689282</v>
       </c>
       <c r="G17" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>70.27912141425954</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>20.76349642496512</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2213,7 +2213,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U21" t="n">
         <v>225.8879277888686</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.693200015578107</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>328.6188756177278</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>147.2907482601406</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
         <v>196.8897623984489</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.56386682245585</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>28.16981641931082</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>99.06926376732839</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>94.65568569260694</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>1.998219257061432</v>
+        <v>13.89068662537685</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>90.02575748609816</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>82.22678580453685</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.89518631743262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>190.2713935802968</v>
+        <v>150.5540262346244</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>38.32326053493059</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>123.0339568820459</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
         <v>61.42221998250818</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.0044783406138</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.211488636581</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>225.4603876057575</v>
+        <v>100.2529734611853</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>223.82438355203</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>19.28289671115652</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3796,19 +3796,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>279.645361994305</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>202.4645461790994</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>227.2386140365967</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>89.30725745073094</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>8.78742075103631</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.1273272985679</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C3" t="n">
-        <v>655.1273272985679</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D3" t="n">
-        <v>655.1273272985679</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y3" t="n">
-        <v>655.1273272985679</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>277.6047704292607</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.84447166430675</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.2254314512334</v>
+        <v>499.3853800778591</v>
       </c>
       <c r="C8" t="n">
-        <v>569.2254314512334</v>
+        <v>499.3853800778591</v>
       </c>
       <c r="D8" t="n">
-        <v>569.2254314512334</v>
+        <v>499.3853800778591</v>
       </c>
       <c r="E8" t="n">
-        <v>569.2254314512334</v>
+        <v>499.3853800778591</v>
       </c>
       <c r="F8" t="n">
-        <v>569.2254314512334</v>
+        <v>255.936603433759</v>
       </c>
       <c r="G8" t="n">
-        <v>325.7766548071333</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H8" t="n">
-        <v>82.32787816303323</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4816,40 +4816,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219591</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219591</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>499.3853800778591</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>499.3853800778591</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>499.3853800778591</v>
       </c>
       <c r="X8" t="n">
-        <v>569.2254314512334</v>
+        <v>499.3853800778591</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>499.3853800778591</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439887</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200709</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>498.6361606388411</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>263.4840524070984</v>
       </c>
       <c r="W9" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="10">
@@ -4983,16 +4983,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607762</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036446</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036446</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036446</v>
@@ -5044,10 +5044,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>1394.322447188938</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>1004.183115213127</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5120,25 +5120,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.9687959810051</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C13" t="n">
-        <v>108.9687959810051</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9687959810051</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9687959810051</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9687959810051</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>108.9687959810051</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>108.9687959810051</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036446</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124033</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810051</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>108.9687959810051</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V13" t="n">
-        <v>108.9687959810051</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W13" t="n">
-        <v>108.9687959810051</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X13" t="n">
-        <v>108.9687959810051</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.9687959810051</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583426</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5293,13 +5293,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
@@ -5308,22 +5308,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>1691.935981225321</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982761</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.1098286224644</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064346</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064346</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978289</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.447402037878</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="D17" t="n">
-        <v>1193.181703431127</v>
+        <v>1536.273892958084</v>
       </c>
       <c r="E17" t="n">
-        <v>807.393450832883</v>
+        <v>1150.48564035984</v>
       </c>
       <c r="F17" t="n">
-        <v>396.4075460432754</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018223</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018223</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.009759042411</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005476</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>184.027325963587</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X19" t="n">
-        <v>184.027325963587</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>863.1126181035243</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C20" t="n">
-        <v>863.1126181035243</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D20" t="n">
-        <v>863.1126181035243</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E20" t="n">
-        <v>863.1126181035243</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>452.1267133139167</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>452.1267133139167</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>124.9319933499195</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2621.14717283663</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2290.084285493059</v>
       </c>
       <c r="W20" t="n">
-        <v>2013.317548404538</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="X20" t="n">
-        <v>1639.851790143458</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="Y20" t="n">
-        <v>1249.712458167646</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5834,22 +5834,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5861,13 +5861,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>63.73409294721102</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W22" t="n">
-        <v>2407.731920981262</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X22" t="n">
-        <v>2179.742370083244</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1166.959449965771</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C23" t="n">
-        <v>797.9969330253592</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D23" t="n">
-        <v>439.7312344186087</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036446</v>
+        <v>796.867144809697</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>385.8812400200895</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2317.164380266785</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2317.164380266785</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2317.164380266785</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2317.164380266785</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1943.698622005704</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1553.559290029893</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.2786438284568</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="C26" t="n">
-        <v>512.2786438284568</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D26" t="n">
-        <v>154.0129452217063</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E26" t="n">
-        <v>154.0129452217063</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F26" t="n">
-        <v>154.0129452217063</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W26" t="n">
-        <v>1662.48357412947</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X26" t="n">
-        <v>1289.01781586839</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y26" t="n">
-        <v>898.8784838925785</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6320,10 +6320,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.4909684781774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5547855502705</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1192.157102157134</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C29" t="n">
-        <v>823.1945852167225</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D29" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2695.130687728262</v>
+        <v>2288.305939713166</v>
       </c>
       <c r="V29" t="n">
-        <v>2695.130687728262</v>
+        <v>1957.243052369595</v>
       </c>
       <c r="W29" t="n">
-        <v>2342.362032458147</v>
+        <v>1604.474397099481</v>
       </c>
       <c r="X29" t="n">
-        <v>1968.896274197068</v>
+        <v>1231.008638838401</v>
       </c>
       <c r="Y29" t="n">
-        <v>1578.756942221256</v>
+        <v>840.8693068625894</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.9553738610024</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C31" t="n">
-        <v>438.9553738610024</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D31" t="n">
-        <v>438.9553738610024</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E31" t="n">
-        <v>438.9553738610024</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>438.9553738610024</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.9553738610024</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>534.603677789272</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C32" t="n">
-        <v>534.603677789272</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D32" t="n">
-        <v>534.603677789272</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533133</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733118</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
         <v>1836.345445977174</v>
@@ -6724,10 +6724,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
         <v>2247.308246834948</v>
@@ -6736,16 +6736,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859355</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982752</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y32" t="n">
-        <v>921.2035178533938</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641983</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598701</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632152</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686824</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>2277.647576838039</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>952.5674858910851</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C35" t="n">
-        <v>952.5674858910851</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D35" t="n">
-        <v>952.5674858910851</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E35" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2658.438726841525</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2482.261239155695</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2263.626572127758</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2009.86478676585</v>
+        <v>2123.03152271167</v>
       </c>
       <c r="V35" t="n">
-        <v>1678.801899422279</v>
+        <v>2123.03152271167</v>
       </c>
       <c r="W35" t="n">
-        <v>1326.033244152165</v>
+        <v>1770.262867441555</v>
       </c>
       <c r="X35" t="n">
-        <v>952.5674858910851</v>
+        <v>1770.262867441555</v>
       </c>
       <c r="Y35" t="n">
-        <v>952.5674858910851</v>
+        <v>1380.123535465744</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7037,31 +7037,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>569.538602044198</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>569.538602044198</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>569.538602044198</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064343</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694737</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X37" t="n">
-        <v>210.7222632714564</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.381229508782</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C38" t="n">
-        <v>1496.41871256837</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7177,16 +7177,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7204,22 +7204,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X38" t="n">
-        <v>2642.120401548716</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.981069572904</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7338,43 +7338,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V40" t="n">
-        <v>274.7355609638946</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W40" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
         <v>53.94298182036445</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1964.838184214438</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C41" t="n">
-        <v>1595.875667274027</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D41" t="n">
-        <v>1595.875667274027</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="E41" t="n">
-        <v>1210.087414675782</v>
+        <v>491.3844633677903</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7444,19 +7444,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W41" t="n">
-        <v>2247.308246834948</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X41" t="n">
-        <v>1964.838184214438</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.838184214438</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
         <v>2488.762748073963</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7575,34 +7575,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T43" t="n">
-        <v>138.3857151273827</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U43" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V43" t="n">
         <v>53.94298182036445</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1139.146815977588</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C44" t="n">
-        <v>770.1842990371763</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D44" t="n">
-        <v>411.9186004304258</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E44" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278601</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017521</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y44" t="n">
-        <v>1525.74665604171</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406182</v>
+        <v>637.9196332460999</v>
       </c>
       <c r="U46" t="n">
-        <v>290.8087152951862</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V46" t="n">
-        <v>281.9325327183818</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917691</v>
       </c>
       <c r="M9" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747115</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9482,7 +9482,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719072</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10442,7 +10442,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22552,22 +22552,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22634,13 +22634,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>12.94875607969328</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>15.78119530986771</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>292.8023933464588</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>50.11854038270994</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>192.9631211494367</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>137.0224969565574</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23223,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>31.86743971662597</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>27.8526734074951</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>51.79469286292874</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>125.690024961841</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>260.7615551004092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>29.15788302489301</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>5.984738727581288</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>59.00575657278324</v>
       </c>
       <c r="G17" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457181</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23946,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.80115265030449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.65219483060172</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24025,7 +24025,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>230.4606710833242</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>135.7278480073531</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24180,22 +24180,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>85.16529440306721</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>69.1575720975172</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,22 +24372,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>82.8571812004754</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>168.8276855108791</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>354.5640252441697</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>314.7149062534666</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>53.95978732560542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>249.2259482512279</v>
+        <v>237.3334808829125</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>77.28404477295275</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24894,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>165.9828178131687</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>272.4562558161461</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>371.342752338621</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>96.01048066168096</v>
+        <v>135.7278480073534</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>16.15514203988112</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>128.1902106262434</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25362,7 +25362,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>55.14106060940506</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.37316471551381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>129.2226540149255</v>
+        <v>254.4300681594977</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>28.31325977179802</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>387.5931490305549</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>90.08573868416403</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>168.53933734988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>179.4658238931623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>158.9993246194569</v>
       </c>
     </row>
     <row r="45">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>135.7278480073533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>243.3502225727917</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495129</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="F2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>231322.0880126062</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
+        <v>231322.0880126061</v>
+      </c>
+      <c r="K2" t="n">
         <v>231322.0880126062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429963</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="H4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="I4" t="n">
         <v>27086.83710496504</v>
@@ -26447,7 +26447,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="L4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="M4" t="n">
         <v>27086.83710496504</v>
@@ -26475,34 +26475,34 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21404.43048286276</v>
+        <v>-33622.44110290319</v>
       </c>
       <c r="C6" t="n">
-        <v>59365.00104868494</v>
+        <v>47146.9904286446</v>
       </c>
       <c r="D6" t="n">
-        <v>59365.00104868494</v>
+        <v>47146.99042864454</v>
       </c>
       <c r="E6" t="n">
-        <v>-277842.4011987647</v>
+        <v>-283910.8149445836</v>
       </c>
       <c r="F6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="G6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="H6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="I6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="J6" t="n">
-        <v>91943.83024512543</v>
+        <v>85875.41649930619</v>
       </c>
       <c r="K6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="L6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="M6" t="n">
-        <v>47030.4121701734</v>
+        <v>40961.99842435432</v>
       </c>
       <c r="N6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="O6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="P6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26758,25 +26758,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26795,34 +26795,34 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768969</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31931,28 +31931,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,43 +31995,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,25 +32171,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.2763378118949</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9091475161415</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181302</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624584</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338902</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,19 +37867,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
